--- a/examples/dynamic/tworods/dyna_velo_20.xlsx
+++ b/examples/dynamic/tworods/dyna_velo_20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="12195"/>
+    <workbookView windowWidth="18090" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="dyna_velo_20" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,9 +30,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46,6 +67,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -54,22 +89,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -77,28 +98,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,40 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +163,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,7 +183,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,25 +261,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,139 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,56 +374,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,8 +395,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,8 +434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,36 +454,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,115 +512,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4419,12 +4419,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr altLang="en-US"/>
-                  <a:t>时间</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
+                  <a:t>Time(ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
@@ -4521,16 +4517,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr altLang="en-US"/>
-                  <a:t>速度</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>mm/ms)</a:t>
+                  <a:t>Velocity(mm/ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
@@ -5482,7 +5470,7 @@
   <dimension ref="A1:F601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
